--- a/tests/test_data/integration_tests/test_file_1_without_merged_cells.xlsx
+++ b/tests/test_data/integration_tests/test_file_1_without_merged_cells.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\executables\diff_lab\tests\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\executables\diff_lab\tests\test_data\integration_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{688AE071-C2FC-40A4-8367-64E633E77631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8644D0DC-AF82-41ED-85E3-7EF9A6E304B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2AF389B-C42C-43EA-BE97-BE93949E425C}"/>
   </bookViews>
@@ -379,15 +379,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88457336-ECCA-4E81-A750-350A2043B13F}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -403,458 +403,73 @@
       <c r="E1">
         <v>5</v>
       </c>
-      <c r="F1">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="B2">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="C2">
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="D2">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="K1">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>11</v>
       </c>
-      <c r="L1">
+      <c r="B3">
         <v>12</v>
       </c>
-      <c r="M1">
+      <c r="C3">
         <v>13</v>
       </c>
-      <c r="N1">
+      <c r="D3">
         <v>14</v>
       </c>
-      <c r="O1">
+      <c r="E3">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>18</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>19</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>20</v>
       </c>
-      <c r="F2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>21</v>
       </c>
-      <c r="G2">
+      <c r="B5">
         <v>22</v>
       </c>
-      <c r="H2">
+      <c r="C5">
         <v>23</v>
       </c>
-      <c r="I2">
+      <c r="D5">
         <v>24</v>
       </c>
-      <c r="J2">
+      <c r="E5">
         <v>25</v>
-      </c>
-      <c r="K2">
-        <v>26</v>
-      </c>
-      <c r="L2">
-        <v>27</v>
-      </c>
-      <c r="M2">
-        <v>28</v>
-      </c>
-      <c r="N2">
-        <v>29</v>
-      </c>
-      <c r="O2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>32</v>
-      </c>
-      <c r="C3">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>34</v>
-      </c>
-      <c r="E3">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>36</v>
-      </c>
-      <c r="G3">
-        <v>37</v>
-      </c>
-      <c r="H3">
-        <v>38</v>
-      </c>
-      <c r="I3">
-        <v>39</v>
-      </c>
-      <c r="J3">
-        <v>40</v>
-      </c>
-      <c r="K3">
-        <v>41</v>
-      </c>
-      <c r="L3">
-        <v>42</v>
-      </c>
-      <c r="M3">
-        <v>43</v>
-      </c>
-      <c r="N3">
-        <v>44</v>
-      </c>
-      <c r="O3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>46</v>
-      </c>
-      <c r="B4">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <v>48</v>
-      </c>
-      <c r="D4">
-        <v>49</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>51</v>
-      </c>
-      <c r="G4">
-        <v>52</v>
-      </c>
-      <c r="H4">
-        <v>53</v>
-      </c>
-      <c r="I4">
-        <v>54</v>
-      </c>
-      <c r="J4">
-        <v>55</v>
-      </c>
-      <c r="K4">
-        <v>56</v>
-      </c>
-      <c r="L4">
-        <v>57</v>
-      </c>
-      <c r="M4">
-        <v>58</v>
-      </c>
-      <c r="N4">
-        <v>59</v>
-      </c>
-      <c r="O4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>61</v>
-      </c>
-      <c r="B5">
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <v>63</v>
-      </c>
-      <c r="D5">
-        <v>64</v>
-      </c>
-      <c r="E5">
-        <v>65</v>
-      </c>
-      <c r="F5">
-        <v>66</v>
-      </c>
-      <c r="G5">
-        <v>67</v>
-      </c>
-      <c r="H5">
-        <v>68</v>
-      </c>
-      <c r="I5">
-        <v>69</v>
-      </c>
-      <c r="J5">
-        <v>70</v>
-      </c>
-      <c r="K5">
-        <v>71</v>
-      </c>
-      <c r="L5">
-        <v>72</v>
-      </c>
-      <c r="M5">
-        <v>73</v>
-      </c>
-      <c r="N5">
-        <v>74</v>
-      </c>
-      <c r="O5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>76</v>
-      </c>
-      <c r="B6">
-        <v>77</v>
-      </c>
-      <c r="C6">
-        <v>78</v>
-      </c>
-      <c r="D6">
-        <v>79</v>
-      </c>
-      <c r="E6">
-        <v>80</v>
-      </c>
-      <c r="F6">
-        <v>81</v>
-      </c>
-      <c r="G6">
-        <v>82</v>
-      </c>
-      <c r="H6">
-        <v>83</v>
-      </c>
-      <c r="I6">
-        <v>84</v>
-      </c>
-      <c r="J6">
-        <v>85</v>
-      </c>
-      <c r="K6">
-        <v>86</v>
-      </c>
-      <c r="L6">
-        <v>87</v>
-      </c>
-      <c r="M6">
-        <v>88</v>
-      </c>
-      <c r="N6">
-        <v>89</v>
-      </c>
-      <c r="O6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>91</v>
-      </c>
-      <c r="B7">
-        <v>92</v>
-      </c>
-      <c r="C7">
-        <v>93</v>
-      </c>
-      <c r="D7">
-        <v>94</v>
-      </c>
-      <c r="E7">
-        <v>95</v>
-      </c>
-      <c r="F7">
-        <v>96</v>
-      </c>
-      <c r="G7">
-        <v>97</v>
-      </c>
-      <c r="H7">
-        <v>98</v>
-      </c>
-      <c r="I7">
-        <v>99</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7">
-        <v>101</v>
-      </c>
-      <c r="L7">
-        <v>102</v>
-      </c>
-      <c r="M7">
-        <v>103</v>
-      </c>
-      <c r="N7">
-        <v>104</v>
-      </c>
-      <c r="O7">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>106</v>
-      </c>
-      <c r="B8">
-        <v>107</v>
-      </c>
-      <c r="C8">
-        <v>108</v>
-      </c>
-      <c r="D8">
-        <v>109</v>
-      </c>
-      <c r="E8">
-        <v>110</v>
-      </c>
-      <c r="F8">
-        <v>111</v>
-      </c>
-      <c r="G8">
-        <v>112</v>
-      </c>
-      <c r="H8">
-        <v>113</v>
-      </c>
-      <c r="I8">
-        <v>114</v>
-      </c>
-      <c r="J8">
-        <v>115</v>
-      </c>
-      <c r="K8">
-        <v>116</v>
-      </c>
-      <c r="L8">
-        <v>117</v>
-      </c>
-      <c r="M8">
-        <v>118</v>
-      </c>
-      <c r="N8">
-        <v>119</v>
-      </c>
-      <c r="O8">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>121</v>
-      </c>
-      <c r="B9">
-        <v>122</v>
-      </c>
-      <c r="C9">
-        <v>123</v>
-      </c>
-      <c r="D9">
-        <v>124</v>
-      </c>
-      <c r="E9">
-        <v>125</v>
-      </c>
-      <c r="F9">
-        <v>126</v>
-      </c>
-      <c r="G9">
-        <v>127</v>
-      </c>
-      <c r="H9">
-        <v>128</v>
-      </c>
-      <c r="I9">
-        <v>129</v>
-      </c>
-      <c r="J9">
-        <v>130</v>
-      </c>
-      <c r="K9">
-        <v>131</v>
-      </c>
-      <c r="L9">
-        <v>132</v>
-      </c>
-      <c r="M9">
-        <v>133</v>
-      </c>
-      <c r="N9">
-        <v>134</v>
-      </c>
-      <c r="O9">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>136</v>
-      </c>
-      <c r="B10">
-        <v>137</v>
-      </c>
-      <c r="C10">
-        <v>138</v>
-      </c>
-      <c r="D10">
-        <v>139</v>
-      </c>
-      <c r="E10">
-        <v>140</v>
-      </c>
-      <c r="F10">
-        <v>141</v>
-      </c>
-      <c r="G10">
-        <v>142</v>
-      </c>
-      <c r="H10">
-        <v>143</v>
-      </c>
-      <c r="I10">
-        <v>144</v>
-      </c>
-      <c r="J10">
-        <v>145</v>
-      </c>
-      <c r="K10">
-        <v>146</v>
-      </c>
-      <c r="L10">
-        <v>147</v>
-      </c>
-      <c r="M10">
-        <v>148</v>
-      </c>
-      <c r="N10">
-        <v>149</v>
-      </c>
-      <c r="O10">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
